--- a/week10/SportsScheduling.xlsx
+++ b/week10/SportsScheduling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30980" yWindow="1320" windowWidth="17280" windowHeight="23240" tabRatio="500"/>
+    <workbookView xWindow="5380" yWindow="0" windowWidth="17280" windowHeight="28280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,9 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$B$14:$B$35</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$5:$G$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$B$36</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$B$37:$B$38</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$B$5:$G$8</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -24,14 +26,18 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$B$10</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$D$14:$D$35</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">binary</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$D$36</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$D$37:$D$38</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">binary</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>SPORTS SCHEDULING</t>
   </si>
@@ -173,6 +179,21 @@
   </si>
   <si>
     <t>D plays once in week 4</t>
+  </si>
+  <si>
+    <t>AB not weeks 3 &amp; 4</t>
+  </si>
+  <si>
+    <t>If AB in 4, then 2</t>
+  </si>
+  <si>
+    <t>CD weeks 1 and/or 2</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
   </si>
 </sst>
 </file>
@@ -222,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -245,11 +266,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -258,6 +299,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -638,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
@@ -658,10 +701,10 @@
         <v>9</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -670,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -681,22 +724,22 @@
         <v>10</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -728,7 +771,7 @@
       </c>
       <c r="B10" s="3">
         <f>1*B5+2*B6+4*B7+8*B8+G5+2*G6+4*G7+8*G8</f>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1074,6 +1117,52 @@
         <v>28</v>
       </c>
       <c r="D35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="6">
+        <f>SUM(B7:B8)</f>
+        <v>1</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="6">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37">
+        <f>B8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <f>G5+G6</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="7">
         <v>1</v>
       </c>
     </row>
